--- a/ConfigData/Xlsx/LevelInfo.xlsx
+++ b/ConfigData/Xlsx/LevelInfo.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
@@ -14,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>|您可以|Red|编辑你的卡片||了，选择你喜欢的卡片痛痛快快的战斗吧！</t>
   </si>
   <si>
     <t>|您可以和您结交的朋友进行|Blue|切磋||了！战胜他们可以获得|Gold|经验，金钱和卡片||哦！</t>
-  </si>
-  <si>
-    <t>|您现在可以|Blue|升级奇术||了。奇术可以直接强化|Gold|英雄的战斗能力||，但是需要消耗|Cyan|阅历值||。</t>
   </si>
   <si>
     <t>|您可以使用|Red|幸运转盘||了。花费|Cyan|钻石||可以转动幸运转盘，并可以获得|Gold|稀有的商城道具||。</t>
@@ -92,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,24 +718,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -748,25 +750,101 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Level"/>
@@ -786,7 +864,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACD"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -821,7 +899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,9 +931,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -887,6 +966,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1062,71 +1142,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="6.75" customWidth="1"/>
     <col min="4" max="4" width="103.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1143,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1160,9 +1240,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1174,15 +1254,15 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1191,12 +1271,12 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1208,15 +1288,15 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1225,15 +1305,15 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1242,12 +1322,12 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -1259,15 +1339,15 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1276,23 +1356,6 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
         <v>10</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/LevelInfo.xlsx
+++ b/ConfigData/Xlsx/LevelInfo.xlsx
@@ -36,9 +36,6 @@
     <t>|您可以使用|Yellow|经验瓶||了。经验瓶可以|Red|将战斗中英雄获得经验转化为其他卡片的经验值|。</t>
   </si>
   <si>
-    <t>|您可以使用|Green|锻造系统||了！通过锻造系统，您可以通过收集的素材直接打造|Gold|绝世神兵||！</t>
-  </si>
-  <si>
     <t>|您可以使用|Red|卡片商店||了！在卡片商店中，你可以随机购买到各种|Gold|极品卡片||！</t>
   </si>
   <si>
@@ -89,6 +86,10 @@
   </si>
   <si>
     <t>Icon</t>
+  </si>
+  <si>
+    <t>|您可以通过配方合成|Blue|装备||了！装备可以使你在战斗中更有优势！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -275,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,8 +462,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -577,6 +584,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,14 +744,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,7 +817,199 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -843,14 +1091,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E12" totalsRowShown="0">
-  <autoFilter ref="A1:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:E12"/>
+  <sortState ref="A4:E13">
+    <sortCondition ref="A3:A13"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Level"/>
-    <tableColumn id="3" name="Type"/>
-    <tableColumn id="4" name="Des"/>
-    <tableColumn id="5" name="Icon"/>
+    <tableColumn id="1" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" name="Level" dataDxfId="3"/>
+    <tableColumn id="3" name="Type" dataDxfId="2"/>
+    <tableColumn id="4" name="Des" dataDxfId="1"/>
+    <tableColumn id="5" name="Icon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1151,212 +1402,214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="6.75" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="7.25" customWidth="1"/>
     <col min="4" max="4" width="103.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
         <v>4</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>7</v>
+      <c r="E9" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>8</v>
+      <c r="E10" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>9</v>
+      <c r="E11" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
+      <c r="D12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/LevelInfo.xlsx
+++ b/ConfigData/Xlsx/LevelInfo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelInfo" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>|您可以|Red|编辑你的卡片||了，选择你喜欢的卡片痛痛快快的战斗吧！</t>
   </si>
   <si>
     <t>|您可以和您结交的朋友进行|Blue|切磋||了！战胜他们可以获得|Gold|经验，金钱和卡片||哦！</t>
-  </si>
-  <si>
-    <t>|您可以使用|Red|幸运转盘||了。花费|Cyan|钻石||可以转动幸运转盘，并可以获得|Gold|稀有的商城道具||。</t>
   </si>
   <si>
     <t>|您可以使用|Gold|商城||了。通过商城，可以花费|Cyan|钻石||购买到|Purple|稀有的道具||，令您事半功倍。</t>
@@ -95,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,74 +1008,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1091,31 +1020,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:E12"/>
-  <sortState ref="A4:E13">
-    <sortCondition ref="A3:A13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:E11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:E11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A4:E12">
+    <sortCondition ref="A3:A12"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" name="Level" dataDxfId="3"/>
-    <tableColumn id="3" name="Type" dataDxfId="2"/>
-    <tableColumn id="4" name="Des" dataDxfId="1"/>
-    <tableColumn id="5" name="Icon" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Level" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Des" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Icon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1183,6 +1112,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1218,6 +1164,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1393,8 +1356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -1410,53 +1373,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1504,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -1521,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7">
         <v>5</v>
@@ -1529,24 +1492,24 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7">
         <v>20</v>
@@ -1558,15 +1521,15 @@
         <v>5</v>
       </c>
       <c r="E9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1575,40 +1538,23 @@
         <v>6</v>
       </c>
       <c r="E10" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E11" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7">
-        <v>50</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7">
         <v>6</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/LevelInfo.xlsx
+++ b/ConfigData/Xlsx/LevelInfo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="LevelInfo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>|您可以|Red|编辑你的卡片||了，选择你喜欢的卡片痛痛快快的战斗吧！</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>|您可以进行|Blue|游戏问答||了。通过游戏问答中回答问题，您可以获得一定的|Cyan|阅历||。</t>
-  </si>
-  <si>
-    <t>|您可以查看您的|Gold|成就||了。只要完成各个成就，您便可以获得|Cyan|钻石||作为奖励！</t>
   </si>
   <si>
     <t>int</t>
@@ -92,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1020,17 +1017,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:E11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:E11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A4:E12">
-    <sortCondition ref="A3:A12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:E10"/>
+  <sortState ref="A4:E11">
+    <sortCondition ref="A3:A11"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Level" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Des" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Icon" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" name="Level" dataDxfId="3"/>
+    <tableColumn id="3" name="Type" dataDxfId="2"/>
+    <tableColumn id="4" name="Des" dataDxfId="1"/>
+    <tableColumn id="5" name="Icon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1356,11 +1353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1373,53 +1370,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1467,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -1526,35 +1523,18 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>50</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7">
         <v>6</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/LevelInfo.xlsx
+++ b/ConfigData/Xlsx/LevelInfo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>|您可以|Red|编辑你的卡片||了，选择你喜欢的卡片痛痛快快的战斗吧！</t>
   </si>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>|您可以通过配方合成|Blue|装备||了！装备可以使你在战斗中更有优势！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>|您获得了一个|Yellow|经典卡包||。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1017,8 +1021,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:E11"/>
   <sortState ref="A4:E11">
     <sortCondition ref="A3:A11"/>
   </sortState>
@@ -1354,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1538,6 +1542,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>100</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/LevelInfo.xlsx
+++ b/ConfigData/Xlsx/LevelInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>|您可以|Red|编辑你的卡片||了，选择你喜欢的卡片痛痛快快的战斗吧！</t>
   </si>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>|您获得了一个|Yellow|经典卡包||。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>|您可以通过城堡面板，转职按钮来完成|Red|转职||，可以随时切换自己的职业。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>|新职业-|Gold|Job||，已经可以使用。可以通过城堡面板，转职按钮来完成|Red|转职||。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +274,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -742,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +784,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,10 +1040,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:E11"/>
-  <sortState ref="A4:E11">
-    <sortCondition ref="A3:A11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:E13"/>
+  <sortState ref="A4:E12">
+    <sortCondition ref="A3:A12"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Id" dataDxfId="4"/>
@@ -1358,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1461,17 +1480,17 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="9">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1479,38 +1498,38 @@
         <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7">
         <v>20</v>
@@ -1519,44 +1538,78 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>50</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>100</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7">
-        <v>1</v>
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>101</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/LevelInfo.xlsx
+++ b/ConfigData/Xlsx/LevelInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>|您可以|Red|编辑你的卡片||了，选择你喜欢的卡片痛痛快快的战斗吧！</t>
   </si>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>Icon</t>
-  </si>
-  <si>
-    <t>|您可以通过配方合成|Blue|装备||了！装备可以使你在战斗中更有优势！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>|您获得了一个|Yellow|经典卡包||。</t>
@@ -1040,10 +1036,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:E13"/>
-  <sortState ref="A4:E12">
-    <sortCondition ref="A3:A12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:E12"/>
+  <sortState ref="A4:E11">
+    <sortCondition ref="A3:A11"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Id" dataDxfId="4"/>
@@ -1377,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1487,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="9">
         <v>11</v>
@@ -1495,41 +1491,41 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7">
         <v>20</v>
@@ -1538,49 +1534,49 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B11" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -1589,26 +1585,9 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>101</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7">
         <v>11</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/LevelInfo.xlsx
+++ b/ConfigData/Xlsx/LevelInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>|您可以|Red|编辑你的卡片||了，选择你喜欢的卡片痛痛快快的战斗吧！</t>
   </si>
@@ -92,13 +92,52 @@
   <si>
     <t>|新职业-|Gold|Job||，已经可以使用。可以通过城堡面板，转职按钮来完成|Red|转职||。</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>|您可以通过城堡面板，加强自己的防御力量。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>deck</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cshop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ques</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>castle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +321,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -754,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +829,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,10 +1085,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:E12"/>
-  <sortState ref="A4:E11">
-    <sortCondition ref="A3:A11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:E13"/>
+  <sortState ref="A4:E12">
+    <sortCondition ref="A3:A12"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Id" dataDxfId="4"/>
@@ -1373,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1451,81 +1500,81 @@
       <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>7</v>
+      <c r="A9" s="10">
+        <v>6</v>
       </c>
       <c r="B9" s="7">
         <v>20</v>
@@ -1534,49 +1583,49 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -1585,17 +1634,35 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>101</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="7">
-        <v>11</v>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ConfigData/Xlsx/LevelInfo.xlsx
+++ b/ConfigData/Xlsx/LevelInfo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F4EFB50A-4432-4B83-9902-C7B9E60E48DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelInfo" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>|您可以|Red|编辑你的卡片||了，选择你喜欢的卡片痛痛快快的战斗吧！</t>
   </si>
@@ -131,12 +132,16 @@
   </si>
   <si>
     <t>castle</t>
+  </si>
+  <si>
+    <t>|您可以通过幸运转盘面板，获取更多资源和道具。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,6 +333,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1085,17 +1091,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:E13"/>
-  <sortState ref="A4:E12">
-    <sortCondition ref="A3:A12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:E14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:E14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A4:E13">
+    <sortCondition ref="A3:A13"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" name="Level" dataDxfId="3"/>
-    <tableColumn id="3" name="Type" dataDxfId="2"/>
-    <tableColumn id="4" name="Des" dataDxfId="1"/>
-    <tableColumn id="5" name="Icon" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Level" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Des" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Icon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1421,11 +1427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1559,38 +1565,38 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
       <c r="B10" s="7">
@@ -1600,10 +1606,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1611,38 +1617,38 @@
         <v>8</v>
       </c>
       <c r="B11" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
@@ -1651,9 +1657,26 @@
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>101</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>29</v>
       </c>
     </row>
